--- a/biology/Zoologie/André_Étienne_Justin_Pascal_Joseph_François_d'Audebert_de_Férussac/André_Étienne_Justin_Pascal_Joseph_François_d'Audebert_de_Férussac.xlsx
+++ b/biology/Zoologie/André_Étienne_Justin_Pascal_Joseph_François_d'Audebert_de_Férussac/André_Étienne_Justin_Pascal_Joseph_François_d'Audebert_de_Férussac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_%C3%89tienne_Justin_Pascal_Joseph_Fran%C3%A7ois_d%27Audebert_de_F%C3%A9russac</t>
+          <t>André_Étienne_Justin_Pascal_Joseph_François_d'Audebert_de_Férussac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baron André Étienne Justin Pascal Joseph François d'Audebert (ou d'Audibert) (ou d'Audebard) de Férussac, né le 30 décembre 1786 au Chartron près de Lauzerte et mort le 21 janvier 1836 à Paris, est un encyclopédiste, géographe et naturaliste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_%C3%89tienne_Justin_Pascal_Joseph_Fran%C3%A7ois_d%27Audebert_de_F%C3%A9russac</t>
+          <t>André_Étienne_Justin_Pascal_Joseph_François_d'Audebert_de_Férussac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est Jean Baptiste Louis d'Audibert de Férussac (1745-1815) qui avait publié plusieurs notices sur les mollusques. Celui-ci rejoignant l'armée sur le Rhin, le petit André de Férussac est conduit chez son aïeule maternelle qui habitait Arbois. Il constitue très tôt des collections de minéraux, de fossiles, de coquillages et d'insectes. Il étudie particulièrement les langues et les mathématiques.
 Il lit devant l'Académie des sciences, à 18 ans, un Mémoire sur de petits crustacés qu'il avait observé au Chartron ; remarqué par Georges Cuvier, son travail est publié après dans les Annales du Muséum d'histoire naturelle.
